--- a/表结构设计.xlsx
+++ b/表结构设计.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -173,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户签名，最多30个汉子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>默认值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -678,14 +674,18 @@
   </si>
   <si>
     <t>消息发送状态，0:未发送 | 1:发送成功 | 2:发送失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户签名，最多30个汉字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -936,6 +936,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="127">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -999,73 +1000,100 @@
     <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -1390,22 +1418,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="96.6640625" customWidth="1"/>
-    <col min="6" max="6" width="119.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="96.625" customWidth="1"/>
+    <col min="6" max="6" width="119.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1">
@@ -1419,7 +1447,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -1450,7 +1478,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>6</v>
@@ -1467,7 +1495,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>9</v>
@@ -1475,19 +1503,19 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7">
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1501,10 +1529,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1535,7 +1563,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>12</v>
@@ -1552,7 +1580,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>26</v>
@@ -1569,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>15</v>
@@ -1586,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>17</v>
@@ -1594,24 +1622,24 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="C12" s="8">
         <v>100</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>31</v>
@@ -1623,12 +1651,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>31</v>
@@ -1640,12 +1668,12 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>31</v>
@@ -1657,12 +1685,12 @@
         <v>0</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>31</v>
@@ -1674,15 +1702,15 @@
         <v>0</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
@@ -1691,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1722,7 +1750,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>23</v>
@@ -1742,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1759,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1776,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="26" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="26.1" customHeight="1">
       <c r="A24" s="11">
         <v>2</v>
       </c>
@@ -1787,7 +1815,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
       <c r="E24" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1795,38 +1823,38 @@
         <v>1</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="7">
+        <v>20</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="7">
-        <v>20</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="7">
+        <v>20</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="7">
-        <v>20</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="8"/>
@@ -1841,7 +1869,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="7"/>
       <c r="E29" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1849,45 +1877,45 @@
         <v>1</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="7">
+        <v>20</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="7">
-        <v>20</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="C31" s="7">
+        <v>20</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="7">
-        <v>20</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="8"/>
       <c r="D32" s="7"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="34" spans="1:5" ht="26" customHeight="1">
+    <row r="34" spans="1:5" ht="26.1" customHeight="1">
       <c r="A34" s="11">
         <v>4</v>
       </c>
@@ -1895,7 +1923,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="7"/>
       <c r="E34" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1903,45 +1931,45 @@
         <v>1</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="7">
+        <v>20</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="7">
-        <v>20</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="C36" s="7">
+        <v>20</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="7">
-        <v>20</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="E36" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="8"/>
       <c r="D37" s="7"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="26" customHeight="1">
+    <row r="39" spans="1:5" ht="26.1" customHeight="1">
       <c r="A39" s="10">
         <v>5</v>
       </c>
@@ -1949,7 +1977,7 @@
       <c r="C39" s="16"/>
       <c r="D39" s="12"/>
       <c r="E39" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1957,41 +1985,41 @@
         <v>1</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="7">
+        <v>20</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="7">
-        <v>20</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="E40" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="C41" s="7">
+        <v>20</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="7">
-        <v>20</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="E41" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
@@ -2000,12 +2028,12 @@
         <v>0</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>14</v>
@@ -2014,15 +2042,15 @@
         <v>0</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>25</v>
@@ -2031,15 +2059,15 @@
         <v>600</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>25</v>
@@ -2048,15 +2076,15 @@
         <v>1000</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>31</v>
@@ -2068,12 +2096,12 @@
         <v>0</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>31</v>
@@ -2085,12 +2113,12 @@
         <v>0</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>31</v>
@@ -2102,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="25" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="24.95" customHeight="1">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -2113,7 +2141,7 @@
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2121,58 +2149,58 @@
         <v>1</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="7">
+        <v>20</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="7">
-        <v>20</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="E51" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="7">
+        <v>20</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="7">
-        <v>20</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E52" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="7">
+        <v>20</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="7">
-        <v>20</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E53" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" s="8">
         <v>1</v>
@@ -2181,63 +2209,63 @@
         <v>1</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="7">
+        <v>20</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="7">
-        <v>20</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="7">
+        <v>20</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="7">
-        <v>20</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="C57" s="8">
         <v>400</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>14</v>
@@ -2246,15 +2274,15 @@
         <v>0</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>31</v>
@@ -2266,10 +2294,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="25" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="24.95" customHeight="1">
       <c r="A61" s="10">
         <v>7</v>
       </c>
@@ -2277,7 +2305,7 @@
       <c r="C61" s="16"/>
       <c r="D61" s="12"/>
       <c r="E61" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2285,72 +2313,72 @@
         <v>1</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="7">
+        <v>20</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="7">
-        <v>20</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="E62" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="7">
+        <v>20</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="7">
-        <v>20</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B64" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="7">
+        <v>20</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="7">
-        <v>20</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E64" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="C65" s="7">
+        <v>20</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="7">
-        <v>20</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E65" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>31</v>
@@ -2362,12 +2390,12 @@
         <v>0</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>14</v>
@@ -2376,13 +2404,13 @@
         <v>0</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="26" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="26.1" customHeight="1">
       <c r="A69" s="10">
         <v>8</v>
       </c>
@@ -2390,7 +2418,7 @@
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2398,72 +2426,72 @@
         <v>1</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="7">
+        <v>20</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="7">
-        <v>20</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="E70" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="7">
+        <v>20</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="7">
-        <v>20</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B72" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="7">
+        <v>20</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C72" s="7">
-        <v>20</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E72" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B73" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="7">
+        <v>20</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="7">
-        <v>20</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E73" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>31</v>
@@ -2475,12 +2503,12 @@
         <v>0</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>14</v>
@@ -2489,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="2" customFormat="1" ht="25" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A77" s="10">
         <v>9</v>
       </c>
@@ -2503,7 +2531,7 @@
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2511,58 +2539,58 @@
         <v>1</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="7">
+        <v>20</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="7">
-        <v>20</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="E78" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="7">
+        <v>20</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C79" s="7">
-        <v>20</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E79" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B80" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="7">
+        <v>20</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C80" s="7">
-        <v>20</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E80" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
@@ -2571,12 +2599,12 @@
         <v>1</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>14</v>
@@ -2585,30 +2613,30 @@
         <v>0</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="C83" s="8">
         <v>0</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="25" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="24.95" customHeight="1">
       <c r="A85" s="10">
         <v>10</v>
       </c>
@@ -2616,7 +2644,7 @@
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
       <c r="E85" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2624,55 +2652,55 @@
         <v>1</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="7">
+        <v>20</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C86" s="7">
-        <v>20</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="E86" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" s="7">
+        <v>20</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C87" s="7">
-        <v>20</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E87" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B88" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="7">
+        <v>20</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="7">
-        <v>20</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E88" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>14</v>
@@ -2681,13 +2709,13 @@
         <v>0</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="26" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="26.1" customHeight="1">
       <c r="A91" s="10">
         <v>11</v>
       </c>
@@ -2695,7 +2723,7 @@
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2703,55 +2731,55 @@
         <v>1</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" s="7">
+        <v>20</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C92" s="7">
-        <v>20</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="E92" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B93" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C93" s="7">
+        <v>20</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C93" s="7">
-        <v>20</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E93" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="7">
+        <v>20</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E94" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C94" s="7">
-        <v>20</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>14</v>
@@ -2760,13 +2788,13 @@
         <v>0</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="26" customHeight="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="26.1" customHeight="1">
       <c r="A97" s="10">
         <v>12</v>
       </c>
@@ -2774,7 +2802,7 @@
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
       <c r="E97" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2782,55 +2810,55 @@
         <v>1</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98" s="7">
+        <v>20</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C98" s="7">
-        <v>20</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="E98" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B99" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C99" s="7">
+        <v>20</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C99" s="7">
-        <v>20</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E99" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B100" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="7">
+        <v>20</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C100" s="7">
-        <v>20</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E100" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>25</v>
@@ -2839,15 +2867,15 @@
         <v>50</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>14</v>
@@ -2856,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="26" customHeight="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="26.1" customHeight="1">
       <c r="A104" s="2">
         <v>13</v>
       </c>
@@ -2870,7 +2898,7 @@
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2878,21 +2906,21 @@
         <v>1</v>
       </c>
       <c r="B105" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C105" s="7">
+        <v>20</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C105" s="7">
-        <v>20</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="E105" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>25</v>
@@ -2901,15 +2929,15 @@
         <v>1000</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>25</v>
@@ -2918,15 +2946,15 @@
         <v>50</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>25</v>
@@ -2935,15 +2963,15 @@
         <v>50</v>
       </c>
       <c r="D108" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E108" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>14</v>
@@ -2952,15 +2980,15 @@
         <v>0</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>14</v>
@@ -2969,18 +2997,18 @@
         <v>0</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C111" s="8">
         <v>1</v>
@@ -2989,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/表结构设计.xlsx
+++ b/表结构设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="163">
   <si>
     <t>t_user 用户信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,323 +361,315 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>commentUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_user表id相关联，当前发表评论的用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentStage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论的内容，只能时文字或表情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>articleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sendArticle表id，在哪个帖子里进行评论的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被评论的评论id，只有评论级数大于1的才会有数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论的级数，1:1级 | 2:2级 | 3:3级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户‘点赞’数量，当此评论受到其他用户的赞时，更新此字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stampedeCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>articleType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_sendArticle表id相关联，此字段有值说明是对帖子的赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_articleComment 用户评论表，对用户发帖评论，对某用户的评论进行评论,对某用户对评论的评论进行评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_articleComment表id相关联，此字段有值说明是对评论的赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_user表id相关联，点赞的用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户‘点赞’数量，当帖子，或评论受到其他用户的赞时，更新此字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_fabulous ‘赞’表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fabulousDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_sendArticle表id相关联，此字段有值说明是对帖子的踩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_articleComment表id相关联，此字段有值说明是对评论的踩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_stampede ‘踩’表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stampedeDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踩时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>followCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_follow 关注表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>followUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_user表id相关联，当前被评论的用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_user表id相关联，当前的用户关注的用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_user表id相关联，当前的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>followDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noFollowDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFollowType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消关注时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注或取关 1:关注 | 2:取关 |</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_blacklist 黑名单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_user表id相关联，当前的用户拉黑的用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_collection 收藏表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sendArticle 用户发帖表，记录用户发布的帖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendArticleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_sendArticle表id相关联，当前的用户收藏的帖子id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectionDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉黑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_user表id相关联，当前的用户的访客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitorId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitorDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitorContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问记录的内容，例如：访问我的资料、查看我的帖子-…、查看我的粉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_systemMsg 系统消息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendMsgDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间，消息创建之后并不会立即发布，可以点击按钮立即发布出去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发布时间，当消息创建之后，确认无误，到达发布时间时，系统自动发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendMsgType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送状态，0:未发送 | 1:发送成功 | 2:发送失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户签名，最多30个汉字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>userId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>commentUserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_user表id相关联，当前发表评论的用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentStage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论的内容，只能时文字或表情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论的时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>articleId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t_sendArticle表id，在哪个帖子里进行评论的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被评论的评论id，只有评论级数大于1的才会有数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论的级数，1:1级 | 2:2级 | 3:3级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户‘点赞’数量，当此评论受到其他用户的赞时，更新此字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stampedeCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>articleType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>articleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_sendArticle表id相关联，此字段有值说明是对帖子的赞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_articleComment 用户评论表，对用户发帖评论，对某用户的评论进行评论,对某用户对评论的评论进行评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_articleComment表id相关联，此字段有值说明是对评论的赞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fabulousCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_user表id相关联，点赞的用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户‘点赞’数量，当帖子，或评论受到其他用户的赞时，更新此字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_fabulous ‘赞’表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fabulousDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>articleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_sendArticle表id相关联，此字段有值说明是对帖子的踩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_articleComment表id相关联，此字段有值说明是对评论的踩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_stampede ‘踩’表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stampedeDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>踩时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>followCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_follow 关注表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>followUserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_user表id相关联，当前被评论的用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_user表id相关联，当前的用户关注的用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_user表id相关联，当前的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>followDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noFollowDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFollowType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消关注时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注或取关 1:关注 | 2:取关 |</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_blacklist 黑名单表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_user表id相关联，当前的用户拉黑的用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackUserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_collection 收藏表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_sendArticle 用户发帖表，记录用户发布的帖子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendArticleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_sendArticle表id相关联，当前的用户收藏的帖子id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectionDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉黑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_collection 访客表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_user表id相关联，当前的用户的访客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visitorId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visitorDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visitorContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问记录的内容，例如：访问我的资料、查看我的帖子-…、查看我的粉丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_systemMsg 系统消息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msgContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msgImage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msgUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msgDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendMsgDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间，消息创建之后并不会立即发布，可以点击按钮立即发布出去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息发布时间，当消息创建之后，确认无误，到达发布时间时，系统自动发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendMsgType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息发送状态，0:未发送 | 1:发送成功 | 2:发送失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户签名，最多30个汉字</t>
+    <t>t_visitor 访客表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_appVersion app版本管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,12 +721,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -890,7 +888,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -934,6 +932,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="127">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1419,11 +1421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1433,7 +1435,7 @@
     <col min="3" max="3" width="16.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="12.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="96.625" customWidth="1"/>
-    <col min="6" max="6" width="119.875" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1">
@@ -1461,7 +1463,7 @@
       <c r="E2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1532,7 +1534,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1656,7 +1658,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>31</v>
@@ -1915,7 +1917,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="34" spans="1:5" ht="26.1" customHeight="1">
+    <row r="34" spans="1:6" ht="26.1" customHeight="1">
       <c r="A34" s="11">
         <v>4</v>
       </c>
@@ -1926,7 +1928,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="6" t="s">
         <v>1</v>
       </c>
@@ -1943,7 +1945,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="9" t="s">
         <v>59</v>
       </c>
@@ -1960,7 +1962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="9" t="s">
         <v>64</v>
       </c>
@@ -1969,7 +1971,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="26.1" customHeight="1">
+    <row r="39" spans="1:6" ht="26.1" customHeight="1">
       <c r="A39" s="10">
         <v>5</v>
       </c>
@@ -1977,10 +1979,11 @@
       <c r="C39" s="16"/>
       <c r="D39" s="12"/>
       <c r="E39" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>132</v>
+      </c>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="6" t="s">
         <v>1</v>
       </c>
@@ -1997,9 +2000,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="9" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>60</v>
@@ -2014,9 +2017,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>68</v>
@@ -2031,7 +2034,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="9" t="s">
         <v>71</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" s="9" t="s">
         <v>72</v>
       </c>
@@ -2065,7 +2068,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" s="9" t="s">
         <v>75</v>
       </c>
@@ -2082,7 +2085,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="6" t="s">
         <v>76</v>
       </c>
@@ -2099,9 +2102,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>31</v>
@@ -2116,7 +2119,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="6" t="s">
         <v>84</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="24.95" customHeight="1">
+    <row r="50" spans="1:6" ht="24.95" customHeight="1">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -2141,10 +2144,11 @@
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>102</v>
+      </c>
+      <c r="F50" s="18"/>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="6" t="s">
         <v>1</v>
       </c>
@@ -2161,9 +2165,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" s="9" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>60</v>
@@ -2175,12 +2179,12 @@
         <v>61</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>60</v>
@@ -2192,12 +2196,12 @@
         <v>61</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>68</v>
@@ -2209,12 +2213,12 @@
         <v>1</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="6" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>60</v>
@@ -2226,12 +2230,12 @@
         <v>61</v>
       </c>
       <c r="E55" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="9" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>60</v>
@@ -2243,15 +2247,15 @@
         <v>61</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="C57" s="8">
         <v>400</v>
@@ -2260,12 +2264,12 @@
         <v>41</v>
       </c>
       <c r="E57" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="9" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>14</v>
@@ -2277,10 +2281,10 @@
         <v>41</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="6" t="s">
         <v>76</v>
       </c>
@@ -2294,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="24.95" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="24.95" customHeight="1">
       <c r="A61" s="10">
         <v>7</v>
       </c>
@@ -2305,10 +2309,11 @@
       <c r="C61" s="16"/>
       <c r="D61" s="12"/>
       <c r="E61" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>106</v>
+      </c>
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="6" t="s">
         <v>1</v>
       </c>
@@ -2325,9 +2330,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63" s="9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>56</v>
@@ -2339,12 +2344,12 @@
         <v>61</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>60</v>
@@ -2356,10 +2361,10 @@
         <v>61</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="9" t="s">
         <v>59</v>
       </c>
@@ -2373,12 +2378,12 @@
         <v>61</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="6" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>31</v>
@@ -2390,12 +2395,12 @@
         <v>0</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>14</v>
@@ -2407,10 +2412,10 @@
         <v>41</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="26.1" customHeight="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="26.1" customHeight="1">
       <c r="A69" s="10">
         <v>8</v>
       </c>
@@ -2418,10 +2423,11 @@
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>111</v>
+      </c>
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="6" t="s">
         <v>1</v>
       </c>
@@ -2438,9 +2444,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71" s="9" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>56</v>
@@ -2452,12 +2458,12 @@
         <v>61</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>60</v>
@@ -2469,12 +2475,12 @@
         <v>61</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="9" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>60</v>
@@ -2486,12 +2492,12 @@
         <v>61</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>31</v>
@@ -2503,12 +2509,12 @@
         <v>0</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>14</v>
@@ -2520,10 +2526,10 @@
         <v>41</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A77" s="10">
         <v>9</v>
       </c>
@@ -2531,10 +2537,11 @@
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>115</v>
+      </c>
+      <c r="F77" s="18"/>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="6" t="s">
         <v>1</v>
       </c>
@@ -2551,9 +2558,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" s="9" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>60</v>
@@ -2565,12 +2572,12 @@
         <v>61</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>60</v>
@@ -2582,12 +2589,12 @@
         <v>61</v>
       </c>
       <c r="E80" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="9" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>68</v>
@@ -2599,12 +2606,12 @@
         <v>1</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>14</v>
@@ -2616,15 +2623,15 @@
         <v>41</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C83" s="8">
         <v>0</v>
@@ -2633,10 +2640,10 @@
         <v>41</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="24.95" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="24.95" customHeight="1">
       <c r="A85" s="10">
         <v>10</v>
       </c>
@@ -2644,10 +2651,11 @@
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
       <c r="E85" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>127</v>
+      </c>
+      <c r="F85" s="18"/>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="6" t="s">
         <v>1</v>
       </c>
@@ -2664,9 +2672,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6">
       <c r="A87" s="9" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>60</v>
@@ -2678,12 +2686,12 @@
         <v>61</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>60</v>
@@ -2695,12 +2703,12 @@
         <v>61</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>14</v>
@@ -2712,10 +2720,10 @@
         <v>41</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="26.1" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="26.1" customHeight="1">
       <c r="A91" s="10">
         <v>11</v>
       </c>
@@ -2723,10 +2731,11 @@
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>131</v>
+      </c>
+      <c r="F91" s="18"/>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="6" t="s">
         <v>1</v>
       </c>
@@ -2743,9 +2752,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93" s="9" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>60</v>
@@ -2757,12 +2766,12 @@
         <v>61</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>60</v>
@@ -2774,12 +2783,12 @@
         <v>61</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>14</v>
@@ -2791,10 +2800,10 @@
         <v>41</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="26.1" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="26.1" customHeight="1">
       <c r="A97" s="10">
         <v>12</v>
       </c>
@@ -2802,10 +2811,11 @@
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
       <c r="E97" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>161</v>
+      </c>
+      <c r="F97" s="18"/>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="6" t="s">
         <v>1</v>
       </c>
@@ -2822,9 +2832,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99" s="9" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>60</v>
@@ -2836,12 +2846,12 @@
         <v>61</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>60</v>
@@ -2853,12 +2863,12 @@
         <v>61</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>25</v>
@@ -2870,12 +2880,12 @@
         <v>41</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>14</v>
@@ -2887,10 +2897,10 @@
         <v>41</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="26.1" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="26.1" customHeight="1">
       <c r="A104" s="2">
         <v>13</v>
       </c>
@@ -2898,10 +2908,11 @@
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>144</v>
+      </c>
+      <c r="F104" s="18"/>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="6" t="s">
         <v>1</v>
       </c>
@@ -2918,9 +2929,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6">
       <c r="A106" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>25</v>
@@ -2932,46 +2943,46 @@
         <v>41</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C107" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C108" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="9" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>14</v>
@@ -2983,12 +2994,12 @@
         <v>41</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>14</v>
@@ -3000,12 +3011,12 @@
         <v>41</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>68</v>
@@ -3017,7 +3028,18 @@
         <v>0</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A113" s="2">
+        <v>14</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/表结构设计.xlsx
+++ b/表结构设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="179">
   <si>
     <t>t_user 用户信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -670,6 +670,65 @@
   </si>
   <si>
     <t>t_appVersion app版本管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>添加时间</t>
+  </si>
+  <si>
+    <t>是否必须更新 1表示必须更新 0表示非必须更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app下载路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本更新说明</t>
+  </si>
+  <si>
+    <t>版本类型 1表示安卓 2表示苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downloadPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descript</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1421,11 +1480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
+      <selection pane="bottomLeft" activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3042,6 +3101,123 @@
         <v>162</v>
       </c>
     </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="7">
+        <v>20</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C115" s="8">
+        <v>100</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116" s="8">
+        <v>1</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C118" s="8">
+        <v>1</v>
+      </c>
+      <c r="D118" s="7">
+        <v>0</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C119" s="8">
+        <v>200</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120" s="8">
+        <v>500</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/表结构设计.xlsx
+++ b/表结构设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="180">
   <si>
     <t>t_user 用户信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,302 +433,306 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>与t_user表id相关联，点赞的用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户‘点赞’数量，当帖子，或评论受到其他用户的赞时，更新此字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_fabulous ‘赞’表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fabulousDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_sendArticle表id相关联，此字段有值说明是对帖子的踩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_articleComment表id相关联，此字段有值说明是对评论的踩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_stampede ‘踩’表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stampedeDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踩时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>followCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_follow 关注表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>followUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_user表id相关联，当前被评论的用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_user表id相关联，当前的用户关注的用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_user表id相关联，当前的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>followDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noFollowDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFollowType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消关注时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注或取关 1:关注 | 2:取关 |</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_blacklist 黑名单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_user表id相关联，当前的用户拉黑的用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_collection 收藏表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sendArticle 用户发帖表，记录用户发布的帖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendArticleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_sendArticle表id相关联，当前的用户收藏的帖子id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectionDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉黑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与t_user表id相关联，当前的用户的访客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitorId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitorDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitorContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问记录的内容，例如：访问我的资料、查看我的帖子-…、查看我的粉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_systemMsg 系统消息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendMsgDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间，消息创建之后并不会立即发布，可以点击按钮立即发布出去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发布时间，当消息创建之后，确认无误，到达发布时间时，系统自动发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendMsgType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送状态，0:未发送 | 1:发送成功 | 2:发送失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户签名，最多30个汉字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>articleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_visitor 访客表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_appVersion app版本管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>添加时间</t>
+  </si>
+  <si>
+    <t>是否必须更新 1表示必须更新 0表示非必须更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app下载路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本更新说明</t>
+  </si>
+  <si>
+    <t>版本类型 1表示安卓 2表示苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downloadPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>与t_articleComment表id相关联，此字段有值说明是对评论的赞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与t_user表id相关联，点赞的用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户‘点赞’数量，当帖子，或评论受到其他用户的赞时，更新此字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_fabulous ‘赞’表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fabulousDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_sendArticle表id相关联，此字段有值说明是对帖子的踩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_articleComment表id相关联，此字段有值说明是对评论的踩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_stampede ‘踩’表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stampedeDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>踩时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>followCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_follow 关注表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>followUserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_user表id相关联，当前被评论的用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_user表id相关联，当前的用户关注的用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_user表id相关联，当前的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>followDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noFollowDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFollowType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消关注时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注或取关 1:关注 | 2:取关 |</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_blacklist 黑名单表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_user表id相关联，当前的用户拉黑的用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackUserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_collection 收藏表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_sendArticle 用户发帖表，记录用户发布的帖子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendArticleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_sendArticle表id相关联，当前的用户收藏的帖子id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectionDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉黑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与t_user表id相关联，当前的用户的访客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visitorId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visitorDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visitorContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问记录的内容，例如：访问我的资料、查看我的帖子-…、查看我的粉丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_systemMsg 系统消息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msgContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msgImage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msgUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msgDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendMsgDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间，消息创建之后并不会立即发布，可以点击按钮立即发布出去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息发布时间，当消息创建之后，确认无误，到达发布时间时，系统自动发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendMsgType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息发送状态，0:未发送 | 1:发送成功 | 2:发送失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户签名，最多30个汉字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>articleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_visitor 访客表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_appVersion app版本管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>添加时间</t>
-  </si>
-  <si>
-    <t>是否必须更新 1表示必须更新 0表示非必须更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app下载路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本更新说明</t>
-  </si>
-  <si>
-    <t>版本类型 1表示安卓 2表示苹果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>downloadPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>descript</t>
+    <t>commentId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1483,8 +1487,8 @@
   <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E116" sqref="E116"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1593,7 +1597,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1717,7 +1721,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>31</v>
@@ -2038,7 +2042,7 @@
       <c r="C39" s="16"/>
       <c r="D39" s="12"/>
       <c r="E39" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F39" s="18"/>
     </row>
@@ -2061,7 +2065,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>60</v>
@@ -2255,7 +2259,7 @@
         <v>61</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2277,7 +2281,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>60</v>
@@ -2368,7 +2372,7 @@
       <c r="C61" s="16"/>
       <c r="D61" s="12"/>
       <c r="E61" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F61" s="18"/>
     </row>
@@ -2408,7 +2412,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="9" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>60</v>
@@ -2420,7 +2424,7 @@
         <v>61</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2437,7 +2441,7 @@
         <v>61</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2454,12 +2458,12 @@
         <v>0</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>14</v>
@@ -2471,7 +2475,7 @@
         <v>41</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="26.1" customHeight="1">
@@ -2482,7 +2486,7 @@
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F69" s="18"/>
     </row>
@@ -2517,7 +2521,7 @@
         <v>61</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2534,7 +2538,7 @@
         <v>61</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2551,7 +2555,7 @@
         <v>61</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2568,12 +2572,12 @@
         <v>0</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>14</v>
@@ -2585,7 +2589,7 @@
         <v>41</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1">
@@ -2596,7 +2600,7 @@
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F77" s="18"/>
     </row>
@@ -2631,12 +2635,12 @@
         <v>61</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>60</v>
@@ -2648,12 +2652,12 @@
         <v>61</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>68</v>
@@ -2665,12 +2669,12 @@
         <v>1</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>14</v>
@@ -2682,15 +2686,15 @@
         <v>41</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="C83" s="8">
         <v>0</v>
@@ -2699,7 +2703,7 @@
         <v>41</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="24.95" customHeight="1">
@@ -2710,7 +2714,7 @@
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
       <c r="E85" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F85" s="18"/>
     </row>
@@ -2745,12 +2749,12 @@
         <v>61</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>60</v>
@@ -2762,12 +2766,12 @@
         <v>61</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>14</v>
@@ -2779,7 +2783,7 @@
         <v>41</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="26.1" customHeight="1">
@@ -2790,7 +2794,7 @@
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F91" s="18"/>
     </row>
@@ -2825,12 +2829,12 @@
         <v>61</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>60</v>
@@ -2842,12 +2846,12 @@
         <v>61</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>14</v>
@@ -2859,7 +2863,7 @@
         <v>41</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="26.1" customHeight="1">
@@ -2870,7 +2874,7 @@
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
       <c r="E97" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F97" s="18"/>
     </row>
@@ -2905,12 +2909,12 @@
         <v>61</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>60</v>
@@ -2922,12 +2926,12 @@
         <v>61</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>25</v>
@@ -2939,12 +2943,12 @@
         <v>41</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>14</v>
@@ -2956,7 +2960,7 @@
         <v>41</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="26.1" customHeight="1">
@@ -2967,7 +2971,7 @@
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F104" s="18"/>
     </row>
@@ -2990,7 +2994,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>25</v>
@@ -3002,12 +3006,12 @@
         <v>41</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>25</v>
@@ -3019,12 +3023,12 @@
         <v>41</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>25</v>
@@ -3033,15 +3037,15 @@
         <v>100</v>
       </c>
       <c r="D108" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E108" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>14</v>
@@ -3053,12 +3057,12 @@
         <v>41</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>14</v>
@@ -3070,12 +3074,12 @@
         <v>41</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>68</v>
@@ -3087,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="26.25" customHeight="1">
@@ -3098,7 +3102,7 @@
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3120,59 +3124,59 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C115" s="8">
         <v>100</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="C116" s="8">
         <v>1</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C118" s="8">
         <v>1</v>
@@ -3181,41 +3185,41 @@
         <v>0</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C119" s="8">
         <v>200</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C120" s="8">
         <v>500</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
